--- a/Datasets/desigualdad_ccaa.xlsx
+++ b/Datasets/desigualdad_ccaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B113A8C5-CA81-2E46-8581-35296C4456DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4299C3-F9A6-854C-BB4C-482FF0B413B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1520" windowWidth="26780" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="1520" windowWidth="26780" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="5" r:id="rId1"/>
@@ -1040,7 +1040,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1081,33 +1081,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,9 +1099,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1138,7 +1108,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1177,9 +1147,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1503,93 +1499,93 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1609,2742 +1605,2742 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11" style="29"/>
+    <col min="1" max="16384" width="11" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="Z1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="AG1" s="31" t="s">
+      <c r="AG1" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="31" t="s">
+      <c r="AH1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AI1" s="31" t="s">
+      <c r="AI1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AJ1" s="31" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AK1" s="31" t="s">
+      <c r="AK1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="AL1" s="31" t="s">
+      <c r="AL1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AM1" s="31" t="s">
+      <c r="AM1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AN1" s="31" t="s">
+      <c r="AN1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="AO1" s="31" t="s">
+      <c r="AO1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AP1" s="31" t="s">
+      <c r="AP1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AQ1" s="31" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AR1" s="31" t="s">
+      <c r="AR1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AS1" s="31" t="s">
+      <c r="AS1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" s="31" t="s">
+      <c r="AT1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="31" t="s">
+      <c r="AU1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="31" t="s">
+      <c r="AV1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="AW1" s="31" t="s">
+      <c r="AW1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" s="32" t="s">
+      <c r="AX1" s="23" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="20">
         <v>19633</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="20">
         <v>9160</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="20">
         <v>23826</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="20">
         <v>31.3</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="20">
         <v>82.22</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="20">
         <v>3.17</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="20">
         <v>7.75</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="20">
         <v>2.6</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="20">
         <v>21805.919999999998</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="20">
         <v>18672.11</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="21">
         <v>24712.69</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="20">
         <v>21.19</v>
       </c>
-      <c r="N2" s="29">
+      <c r="N2" s="20">
         <v>41.69</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="20">
         <v>32.5</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="20">
         <v>84.6</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="Q2" s="20">
         <v>1.37</v>
       </c>
-      <c r="R2" s="29">
+      <c r="R2" s="20">
         <v>10602.7</v>
       </c>
-      <c r="S2" s="29">
+      <c r="S2" s="20">
         <v>27532.66</v>
       </c>
-      <c r="T2" s="29">
+      <c r="T2" s="20">
         <v>5.5</v>
       </c>
-      <c r="U2" s="29">
+      <c r="U2" s="20">
         <v>0.17</v>
       </c>
-      <c r="V2" s="29">
+      <c r="V2" s="20">
         <v>39.47</v>
       </c>
-      <c r="W2" s="29">
+      <c r="W2" s="20">
         <v>7.3</v>
       </c>
-      <c r="X2" s="29">
+      <c r="X2" s="20">
         <v>5.6</v>
       </c>
-      <c r="Y2" s="29">
+      <c r="Y2" s="20">
         <v>7</v>
       </c>
-      <c r="Z2" s="29">
+      <c r="Z2" s="20">
         <v>71</v>
       </c>
-      <c r="AA2" s="29">
+      <c r="AA2" s="20">
         <v>531045</v>
       </c>
-      <c r="AB2" s="29">
+      <c r="AB2" s="20">
         <v>28395</v>
       </c>
-      <c r="AC2" s="29">
+      <c r="AC2" s="20">
         <v>57938</v>
       </c>
-      <c r="AD2" s="29">
+      <c r="AD2" s="20">
         <v>212817</v>
       </c>
-      <c r="AE2" s="29">
+      <c r="AE2" s="20">
         <v>231895</v>
       </c>
-      <c r="AF2" s="29">
+      <c r="AF2" s="20">
         <v>30.2</v>
       </c>
-      <c r="AG2" s="29">
+      <c r="AG2" s="20">
         <v>73.900000000000006</v>
       </c>
-      <c r="AH2" s="29">
+      <c r="AH2" s="20">
         <v>76.8</v>
       </c>
-      <c r="AI2" s="29">
+      <c r="AI2" s="20">
         <v>94.7</v>
       </c>
-      <c r="AJ2" s="29">
+      <c r="AJ2" s="20">
         <v>61.8</v>
       </c>
-      <c r="AK2" s="29">
+      <c r="AK2" s="20">
         <v>99.3</v>
       </c>
-      <c r="AL2" s="29">
+      <c r="AL2" s="20">
         <v>67.599999999999994</v>
       </c>
-      <c r="AM2" s="29">
+      <c r="AM2" s="20">
         <v>85.5</v>
       </c>
-      <c r="AN2" s="29">
+      <c r="AN2" s="20">
         <v>91.3</v>
       </c>
-      <c r="AO2" s="29">
+      <c r="AO2" s="20">
         <v>37.5</v>
       </c>
-      <c r="AP2" s="29">
+      <c r="AP2" s="20">
         <v>21</v>
       </c>
-      <c r="AQ2" s="29">
+      <c r="AQ2" s="20">
         <v>20.9</v>
       </c>
-      <c r="AR2" s="29">
+      <c r="AR2" s="20">
         <v>12.5</v>
       </c>
-      <c r="AS2" s="29">
+      <c r="AS2" s="20">
         <v>22.7</v>
       </c>
-      <c r="AT2" s="29">
+      <c r="AT2" s="20">
         <v>16.2</v>
       </c>
-      <c r="AU2" s="29">
+      <c r="AU2" s="20">
         <v>99.2</v>
       </c>
-      <c r="AV2" s="29">
+      <c r="AV2" s="20">
         <v>98.2</v>
       </c>
-      <c r="AW2" s="29">
+      <c r="AW2" s="20">
         <v>71.5</v>
       </c>
-      <c r="AX2" s="29">
+      <c r="AX2" s="20">
         <v>54.3</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="20">
         <v>28727</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="20">
         <v>12300</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="20">
         <v>29672</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="20">
         <v>17.899999999999999</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="20">
         <v>83.9</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="20">
         <v>2.14</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="20">
         <v>6.54</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="20">
         <v>0.7</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="20">
         <v>23531.83</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="20">
         <v>20074.25</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="20">
         <v>26640.59</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="20">
         <v>10.029999999999999</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="20">
         <v>27.35</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="20">
         <v>28.4</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="20">
         <v>86.2</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="20">
         <v>1.24</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="20">
         <v>12775.48</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="20">
         <v>30716.04</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="20">
         <v>3.8</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="20">
         <v>0.13</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="20">
         <v>37.32</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="20">
         <v>7.4</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="20">
         <v>6</v>
       </c>
-      <c r="Y3" s="29">
+      <c r="Y3" s="20">
         <v>7</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="20">
         <v>81.5</v>
       </c>
-      <c r="AA3" s="29">
+      <c r="AA3" s="20">
         <v>90682</v>
       </c>
-      <c r="AB3" s="29">
+      <c r="AB3" s="20">
         <v>6532</v>
       </c>
-      <c r="AC3" s="29">
+      <c r="AC3" s="20">
         <v>11787</v>
       </c>
-      <c r="AD3" s="29">
+      <c r="AD3" s="20">
         <v>31636</v>
       </c>
-      <c r="AE3" s="29">
+      <c r="AE3" s="20">
         <v>40727</v>
       </c>
-      <c r="AF3" s="29">
+      <c r="AF3" s="20">
         <v>40</v>
       </c>
-      <c r="AG3" s="29">
+      <c r="AG3" s="20">
         <v>79.900000000000006</v>
       </c>
-      <c r="AH3" s="29">
+      <c r="AH3" s="20">
         <v>85</v>
       </c>
-      <c r="AI3" s="29">
+      <c r="AI3" s="20">
         <v>96.3</v>
       </c>
-      <c r="AJ3" s="29">
+      <c r="AJ3" s="20">
         <v>80</v>
       </c>
-      <c r="AK3" s="29">
+      <c r="AK3" s="20">
         <v>99.7</v>
       </c>
-      <c r="AL3" s="29">
+      <c r="AL3" s="20">
         <v>71.2</v>
       </c>
-      <c r="AM3" s="29">
+      <c r="AM3" s="20">
         <v>96.1</v>
       </c>
-      <c r="AN3" s="29">
+      <c r="AN3" s="20">
         <v>93.5</v>
       </c>
-      <c r="AO3" s="29">
+      <c r="AO3" s="20">
         <v>36.799999999999997</v>
       </c>
-      <c r="AP3" s="29">
+      <c r="AP3" s="20">
         <v>15.7</v>
       </c>
-      <c r="AQ3" s="29">
+      <c r="AQ3" s="20">
         <v>18.2</v>
       </c>
-      <c r="AR3" s="29">
+      <c r="AR3" s="20">
         <v>2.5</v>
       </c>
-      <c r="AS3" s="29">
+      <c r="AS3" s="20">
         <v>24.1</v>
       </c>
-      <c r="AT3" s="29">
+      <c r="AT3" s="20">
         <v>19</v>
       </c>
-      <c r="AU3" s="29">
+      <c r="AU3" s="20">
         <v>99.2</v>
       </c>
-      <c r="AV3" s="29">
+      <c r="AV3" s="20">
         <v>98.3</v>
       </c>
-      <c r="AW3" s="29">
+      <c r="AW3" s="20">
         <v>85.4</v>
       </c>
-      <c r="AX3" s="29">
+      <c r="AX3" s="20">
         <v>64.7</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="20">
         <v>23299</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="20">
         <v>12523</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="20">
         <v>27897</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="20">
         <v>20.7</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="20">
         <v>82.83</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="20">
         <v>2.66</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="20">
         <v>6.53</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="20">
         <v>0.5</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="20">
         <v>23914.61</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="20">
         <v>19744.939999999999</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="20">
         <v>27912.91</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="20">
         <v>14.19</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="20">
         <v>28.7</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="20">
         <v>41.5</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="20">
         <v>86.1</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="20">
         <v>0.35</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="20">
         <v>12317.84</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="20">
         <v>27367.02</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="20">
         <v>1.8</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="20">
         <v>0.21</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="20">
         <v>33.92</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="20">
         <v>7.5</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="20">
         <v>6.3</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4" s="20">
         <v>6.9</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="20">
         <v>69.900000000000006</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AA4" s="20">
         <v>68433</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4" s="20">
         <v>3495</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4" s="20">
         <v>8133</v>
       </c>
-      <c r="AD4" s="29">
+      <c r="AD4" s="20">
         <v>26459</v>
       </c>
-      <c r="AE4" s="29">
+      <c r="AE4" s="20">
         <v>30346</v>
       </c>
-      <c r="AF4" s="29">
+      <c r="AF4" s="20">
         <v>31.6</v>
       </c>
-      <c r="AG4" s="29">
+      <c r="AG4" s="20">
         <v>74</v>
       </c>
-      <c r="AH4" s="29">
+      <c r="AH4" s="20">
         <v>79.2</v>
       </c>
-      <c r="AI4" s="29">
+      <c r="AI4" s="20">
         <v>93.4</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AJ4" s="20">
         <v>69.8</v>
       </c>
-      <c r="AK4" s="29">
+      <c r="AK4" s="20">
         <v>99</v>
       </c>
-      <c r="AL4" s="29">
+      <c r="AL4" s="20">
         <v>65.7</v>
       </c>
-      <c r="AM4" s="29">
+      <c r="AM4" s="20">
         <v>94.9</v>
       </c>
-      <c r="AN4" s="29">
+      <c r="AN4" s="20">
         <v>95.3</v>
       </c>
-      <c r="AO4" s="29">
+      <c r="AO4" s="20">
         <v>37.4</v>
       </c>
-      <c r="AP4" s="29">
+      <c r="AP4" s="20">
         <v>21.7</v>
       </c>
-      <c r="AQ4" s="29">
+      <c r="AQ4" s="20">
         <v>18.2</v>
       </c>
-      <c r="AR4" s="29">
+      <c r="AR4" s="20">
         <v>7.9</v>
       </c>
-      <c r="AS4" s="29">
+      <c r="AS4" s="20">
         <v>23.8</v>
       </c>
-      <c r="AT4" s="29">
+      <c r="AT4" s="20">
         <v>18.3</v>
       </c>
-      <c r="AU4" s="29">
+      <c r="AU4" s="20">
         <v>98.9</v>
       </c>
-      <c r="AV4" s="29">
+      <c r="AV4" s="20">
         <v>98.1</v>
       </c>
-      <c r="AW4" s="29">
+      <c r="AW4" s="20">
         <v>81.599999999999994</v>
       </c>
-      <c r="AX4" s="29">
+      <c r="AX4" s="20">
         <v>61.3</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="20">
         <v>28213</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="20">
         <v>12410</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="20">
         <v>32179</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="20">
         <v>12</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="20">
         <v>83.71</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="20">
         <v>3.25</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="20">
         <v>4.99</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="20">
         <v>1.5</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="20">
         <v>22800.87</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="20">
         <v>21085.74</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="20">
         <v>24437.58</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="20">
         <v>11.74</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="20">
         <v>29.18</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="20">
         <v>16.7</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="20">
         <v>87.3</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="20">
         <v>1.07</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="20">
         <v>12765.75</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="20">
         <v>33125.730000000003</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="20">
         <v>3.6</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="20">
         <v>0.24</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="20">
         <v>39.58</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="20">
         <v>7.7</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="20">
         <v>5.9</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5" s="20">
         <v>7.3</v>
       </c>
-      <c r="Z5" s="29">
+      <c r="Z5" s="20">
         <v>65.400000000000006</v>
       </c>
-      <c r="AA5" s="29">
+      <c r="AA5" s="20">
         <v>100022</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AB5" s="20">
         <v>4834</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5" s="20">
         <v>17291</v>
       </c>
-      <c r="AD5" s="29">
+      <c r="AD5" s="20">
         <v>31172</v>
       </c>
-      <c r="AE5" s="29">
+      <c r="AE5" s="20">
         <v>46725</v>
       </c>
-      <c r="AF5" s="29">
+      <c r="AF5" s="20">
         <v>38.5</v>
       </c>
-      <c r="AG5" s="29">
+      <c r="AG5" s="20">
         <v>79.7</v>
       </c>
-      <c r="AH5" s="29">
+      <c r="AH5" s="20">
         <v>85.2</v>
       </c>
-      <c r="AI5" s="29">
+      <c r="AI5" s="20">
         <v>95.6</v>
       </c>
-      <c r="AJ5" s="29">
+      <c r="AJ5" s="20">
         <v>75.400000000000006</v>
       </c>
-      <c r="AK5" s="29">
+      <c r="AK5" s="20">
         <v>98.9</v>
       </c>
-      <c r="AL5" s="29">
+      <c r="AL5" s="20">
         <v>68.7</v>
       </c>
-      <c r="AM5" s="29">
+      <c r="AM5" s="20">
         <v>95.1</v>
       </c>
-      <c r="AN5" s="29">
+      <c r="AN5" s="20">
         <v>98.5</v>
       </c>
-      <c r="AO5" s="29">
+      <c r="AO5" s="20">
         <v>31.1</v>
       </c>
-      <c r="AP5" s="29">
+      <c r="AP5" s="20">
         <v>15.5</v>
       </c>
-      <c r="AQ5" s="29">
+      <c r="AQ5" s="20">
         <v>23</v>
       </c>
-      <c r="AR5" s="29">
+      <c r="AR5" s="20">
         <v>10</v>
       </c>
-      <c r="AS5" s="29">
+      <c r="AS5" s="20">
         <v>23.1</v>
       </c>
-      <c r="AT5" s="29">
+      <c r="AT5" s="20">
         <v>16.7</v>
       </c>
-      <c r="AU5" s="29">
+      <c r="AU5" s="20">
         <v>99.3</v>
       </c>
-      <c r="AV5" s="29">
+      <c r="AV5" s="20">
         <v>97.6</v>
       </c>
-      <c r="AW5" s="29">
+      <c r="AW5" s="20">
         <v>81.400000000000006</v>
       </c>
-      <c r="AX5" s="29">
+      <c r="AX5" s="20">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="20">
         <v>21244</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="20">
         <v>9487</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="20">
         <v>24565</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="20">
         <v>28.5</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="20">
         <v>82.79</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="20">
         <v>2.72</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="20">
         <v>7.55</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="20">
         <v>1.6</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="20">
         <v>20763.48</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="20">
         <v>19051.009999999998</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="20">
         <v>22333.63</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="20">
         <v>20.49</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="20">
         <v>42.18</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="20">
         <v>34</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="20">
         <v>87.1</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="20">
         <v>1.34</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="20">
         <v>9851.5</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="20">
         <v>25389.65</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="20">
         <v>6.4</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="20">
         <v>0.26</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="20">
         <v>41.49</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="20">
         <v>7.1</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="20">
         <v>5.6</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="20">
         <v>7.1</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="20">
         <v>76.099999999999994</v>
       </c>
-      <c r="AA6" s="29">
+      <c r="AA6" s="20">
         <v>152756</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6" s="20">
         <v>5677</v>
       </c>
-      <c r="AC6" s="29">
+      <c r="AC6" s="20">
         <v>16951</v>
       </c>
-      <c r="AD6" s="29">
+      <c r="AD6" s="20">
         <v>58466</v>
       </c>
-      <c r="AE6" s="29">
+      <c r="AE6" s="20">
         <v>71662</v>
       </c>
-      <c r="AF6" s="29">
+      <c r="AF6" s="20">
         <v>25.8</v>
       </c>
-      <c r="AG6" s="29">
+      <c r="AG6" s="20">
         <v>75.8</v>
       </c>
-      <c r="AH6" s="29">
+      <c r="AH6" s="20">
         <v>80.5</v>
       </c>
-      <c r="AI6" s="29">
+      <c r="AI6" s="20">
         <v>96.2</v>
       </c>
-      <c r="AJ6" s="29">
+      <c r="AJ6" s="20">
         <v>81.8</v>
       </c>
-      <c r="AK6" s="29">
+      <c r="AK6" s="20">
         <v>99.5</v>
       </c>
-      <c r="AL6" s="29">
+      <c r="AL6" s="20">
         <v>65.400000000000006</v>
       </c>
-      <c r="AM6" s="29">
+      <c r="AM6" s="20">
         <v>91.4</v>
       </c>
-      <c r="AN6" s="29">
+      <c r="AN6" s="20">
         <v>90.4</v>
       </c>
-      <c r="AO6" s="29">
+      <c r="AO6" s="20">
         <v>37.200000000000003</v>
       </c>
-      <c r="AP6" s="29">
+      <c r="AP6" s="20">
         <v>19.3</v>
       </c>
-      <c r="AQ6" s="29">
+      <c r="AQ6" s="20">
         <v>25.2</v>
       </c>
-      <c r="AR6" s="29">
+      <c r="AR6" s="20">
         <v>10.4</v>
       </c>
-      <c r="AS6" s="29">
+      <c r="AS6" s="20">
         <v>22.3</v>
       </c>
-      <c r="AT6" s="29">
+      <c r="AT6" s="20">
         <v>6.6</v>
       </c>
-      <c r="AU6" s="29">
+      <c r="AU6" s="20">
         <v>98.3</v>
       </c>
-      <c r="AV6" s="29">
+      <c r="AV6" s="20">
         <v>97.8</v>
       </c>
-      <c r="AW6" s="29">
+      <c r="AW6" s="20">
         <v>67.8</v>
       </c>
-      <c r="AX6" s="29">
+      <c r="AX6" s="20">
         <v>62.8</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="20">
         <v>24383</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="20">
         <v>12205</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="20">
         <v>29144</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="20">
         <v>17.3</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="20">
         <v>83.6</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="20">
         <v>1.32</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="20">
         <v>8.8699999999999992</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="20">
         <v>0.3</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="20">
         <v>22554.83</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="20">
         <v>19630.009999999998</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="20">
         <v>25349.01</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="20">
         <v>10.28</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="20">
         <v>30.92</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="20">
         <v>26.6</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="20">
         <v>85.2</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="20">
         <v>0.62</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="20">
         <v>12387.41</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="20">
         <v>29520.52</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="20">
         <v>1.7</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="20">
         <v>0.27</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="20">
         <v>43.83</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="20">
         <v>7.4</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="20">
         <v>5.7</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="20">
         <v>7.1</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="20">
         <v>88</v>
       </c>
-      <c r="AA7" s="29">
+      <c r="AA7" s="20">
         <v>38880</v>
       </c>
-      <c r="AB7" s="29">
+      <c r="AB7" s="20">
         <v>2086</v>
       </c>
-      <c r="AC7" s="29">
+      <c r="AC7" s="20">
         <v>5537</v>
       </c>
-      <c r="AD7" s="29">
+      <c r="AD7" s="20">
         <v>14311</v>
       </c>
-      <c r="AE7" s="29">
+      <c r="AE7" s="20">
         <v>16946</v>
       </c>
-      <c r="AF7" s="29">
+      <c r="AF7" s="20">
         <v>39.200000000000003</v>
       </c>
-      <c r="AG7" s="29">
+      <c r="AG7" s="20">
         <v>75.599999999999994</v>
       </c>
-      <c r="AH7" s="29">
+      <c r="AH7" s="20">
         <v>82.1</v>
       </c>
-      <c r="AI7" s="29">
+      <c r="AI7" s="20">
         <v>93.9</v>
       </c>
-      <c r="AJ7" s="29">
+      <c r="AJ7" s="20">
         <v>74.3</v>
       </c>
-      <c r="AK7" s="29">
+      <c r="AK7" s="20">
         <v>99.1</v>
       </c>
-      <c r="AL7" s="29">
+      <c r="AL7" s="20">
         <v>74.3</v>
       </c>
-      <c r="AM7" s="29">
+      <c r="AM7" s="20">
         <v>94.4</v>
       </c>
-      <c r="AN7" s="29">
+      <c r="AN7" s="20">
         <v>100</v>
       </c>
-      <c r="AO7" s="29">
+      <c r="AO7" s="20">
         <v>36.200000000000003</v>
       </c>
-      <c r="AP7" s="29">
+      <c r="AP7" s="20">
         <v>17.5</v>
       </c>
-      <c r="AQ7" s="29">
+      <c r="AQ7" s="20">
         <v>21</v>
       </c>
-      <c r="AR7" s="29">
+      <c r="AR7" s="20">
         <v>2.6</v>
       </c>
-      <c r="AS7" s="29">
+      <c r="AS7" s="20">
         <v>22.9</v>
       </c>
-      <c r="AT7" s="29">
+      <c r="AT7" s="20">
         <v>11.1</v>
       </c>
-      <c r="AU7" s="29">
+      <c r="AU7" s="20">
         <v>99.4</v>
       </c>
-      <c r="AV7" s="29">
+      <c r="AV7" s="20">
         <v>98.6</v>
       </c>
-      <c r="AW7" s="29">
+      <c r="AW7" s="20">
         <v>72.7</v>
       </c>
-      <c r="AX7" s="29">
+      <c r="AX7" s="20">
         <v>65.900000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="20">
         <v>24886</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="20">
         <v>12003</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="20">
         <v>27679</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="20">
         <v>12.9</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="20">
         <v>84.2</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="20">
         <v>2.79</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="20">
         <v>6.84</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="20">
         <v>0.7</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="20">
         <v>22034.53</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="20">
         <v>19056.53</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="20">
         <v>24714.04</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="20">
         <v>11.63</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="20">
         <v>29.52</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="20">
         <v>30</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="20">
         <v>84.9</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="20">
         <v>0.37</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="20">
         <v>11847.98</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="20">
         <v>27233.61</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="20">
         <v>2.5</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="20">
         <v>0.18</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="20">
         <v>26.38</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="20">
         <v>7.2</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="20">
         <v>5.8</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="20">
         <v>6.6</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="20">
         <v>80</v>
       </c>
-      <c r="AA8" s="29">
+      <c r="AA8" s="20">
         <v>160199</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="20">
         <v>11477</v>
       </c>
-      <c r="AC8" s="29">
+      <c r="AC8" s="20">
         <v>22875</v>
       </c>
-      <c r="AD8" s="29">
+      <c r="AD8" s="20">
         <v>62394</v>
       </c>
-      <c r="AE8" s="29">
+      <c r="AE8" s="20">
         <v>63453</v>
       </c>
-      <c r="AF8" s="29">
+      <c r="AF8" s="20">
         <v>36.5</v>
       </c>
-      <c r="AG8" s="29">
+      <c r="AG8" s="20">
         <v>77.8</v>
       </c>
-      <c r="AH8" s="29">
+      <c r="AH8" s="20">
         <v>79.400000000000006</v>
       </c>
-      <c r="AI8" s="29">
+      <c r="AI8" s="20">
         <v>93.9</v>
       </c>
-      <c r="AJ8" s="29">
+      <c r="AJ8" s="20">
         <v>73.900000000000006</v>
       </c>
-      <c r="AK8" s="29">
+      <c r="AK8" s="20">
         <v>99.4</v>
       </c>
-      <c r="AL8" s="29">
+      <c r="AL8" s="20">
         <v>69.7</v>
       </c>
-      <c r="AM8" s="29">
+      <c r="AM8" s="20">
         <v>96.1</v>
       </c>
-      <c r="AN8" s="29">
+      <c r="AN8" s="20">
         <v>99</v>
       </c>
-      <c r="AO8" s="29">
+      <c r="AO8" s="20">
         <v>39.200000000000003</v>
       </c>
-      <c r="AP8" s="29">
+      <c r="AP8" s="20">
         <v>13.2</v>
       </c>
-      <c r="AQ8" s="29">
+      <c r="AQ8" s="20">
         <v>17.899999999999999</v>
       </c>
-      <c r="AR8" s="29">
+      <c r="AR8" s="20">
         <v>5.6</v>
       </c>
-      <c r="AS8" s="29">
+      <c r="AS8" s="20">
         <v>22.7</v>
       </c>
-      <c r="AT8" s="29">
+      <c r="AT8" s="20">
         <v>21.7</v>
       </c>
-      <c r="AU8" s="29">
+      <c r="AU8" s="20">
         <v>100</v>
       </c>
-      <c r="AV8" s="29">
+      <c r="AV8" s="20">
         <v>99</v>
       </c>
-      <c r="AW8" s="29">
+      <c r="AW8" s="20">
         <v>73.2</v>
       </c>
-      <c r="AX8" s="29">
+      <c r="AX8" s="20">
         <v>61.3</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="20">
         <v>21004</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="20">
         <v>9715</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="20">
         <v>24853</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="20">
         <v>26.2</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="20">
         <v>83.57</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="20">
         <v>3.26</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="20">
         <v>5.93</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="20">
         <v>2.1</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="20">
         <v>21756.38</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="20">
         <v>19088.87</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="20">
         <v>23960.1</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="20">
         <v>16.21</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="20">
         <v>39.08</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="20">
         <v>33</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="20">
         <v>85.7</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="20">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="20">
         <v>10394.41</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="20">
         <v>26551.65</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="20">
         <v>0.12</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="20">
         <v>43.18</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="20">
         <v>7.3</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="20">
         <v>5.6</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="20">
         <v>7.1</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="20">
         <v>84.4</v>
       </c>
-      <c r="AA9" s="29">
+      <c r="AA9" s="20">
         <v>128713</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="20">
         <v>11174</v>
       </c>
-      <c r="AC9" s="29">
+      <c r="AC9" s="20">
         <v>19696</v>
       </c>
-      <c r="AD9" s="29">
+      <c r="AD9" s="20">
         <v>51304</v>
       </c>
-      <c r="AE9" s="29">
+      <c r="AE9" s="20">
         <v>46539</v>
       </c>
-      <c r="AF9" s="29">
+      <c r="AF9" s="20">
         <v>40</v>
       </c>
-      <c r="AG9" s="29">
+      <c r="AG9" s="20">
         <v>76.5</v>
       </c>
-      <c r="AH9" s="29">
+      <c r="AH9" s="20">
         <v>77.2</v>
       </c>
-      <c r="AI9" s="29">
+      <c r="AI9" s="20">
         <v>93.2</v>
       </c>
-      <c r="AJ9" s="29">
+      <c r="AJ9" s="20">
         <v>61</v>
       </c>
-      <c r="AK9" s="29">
+      <c r="AK9" s="20">
         <v>99.7</v>
       </c>
-      <c r="AL9" s="29">
+      <c r="AL9" s="20">
         <v>68.400000000000006</v>
       </c>
-      <c r="AM9" s="29">
+      <c r="AM9" s="20">
         <v>93.7</v>
       </c>
-      <c r="AN9" s="29">
+      <c r="AN9" s="20">
         <v>95.1</v>
       </c>
-      <c r="AO9" s="29">
+      <c r="AO9" s="20">
         <v>34.700000000000003</v>
       </c>
-      <c r="AP9" s="29">
+      <c r="AP9" s="20">
         <v>20.3</v>
       </c>
-      <c r="AQ9" s="29">
+      <c r="AQ9" s="20">
         <v>18.5</v>
       </c>
-      <c r="AR9" s="29">
+      <c r="AR9" s="20">
         <v>10.1</v>
       </c>
-      <c r="AS9" s="29">
+      <c r="AS9" s="20">
         <v>24.6</v>
       </c>
-      <c r="AT9" s="29">
+      <c r="AT9" s="20">
         <v>13.5</v>
       </c>
-      <c r="AU9" s="29">
+      <c r="AU9" s="20">
         <v>99.9</v>
       </c>
-      <c r="AV9" s="29">
+      <c r="AV9" s="20">
         <v>98.3</v>
       </c>
-      <c r="AW9" s="29">
+      <c r="AW9" s="20">
         <v>68.2</v>
       </c>
-      <c r="AX9" s="29">
+      <c r="AX9" s="20">
         <v>58.1</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="20">
         <v>31119</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="20">
         <v>13527</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="20">
         <v>33321</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="20">
         <v>13.9</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="20">
         <v>83.83</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="20">
         <v>2.58</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="20">
         <v>7.81</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="20">
         <v>1.4</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="20">
         <v>25552.84</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="20">
         <v>22289.9</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="20">
         <v>28640.23</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="20">
         <v>11.03</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="20">
         <v>26.16</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="20">
         <v>23.3</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="20">
         <v>85.4</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="20">
         <v>1.88</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="20">
         <v>13414.36</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="20">
         <v>32915.71</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="20">
         <v>6.3</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="20">
         <v>0.11</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="20">
         <v>37.35</v>
       </c>
-      <c r="W10" s="29">
+      <c r="W10" s="20">
         <v>7.3</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="20">
         <v>6</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Y10" s="20">
         <v>7</v>
       </c>
-      <c r="Z10" s="29">
+      <c r="Z10" s="20">
         <v>74.7</v>
       </c>
-      <c r="AA10" s="29">
+      <c r="AA10" s="20">
         <v>629876</v>
       </c>
-      <c r="AB10" s="29">
+      <c r="AB10" s="20">
         <v>35339</v>
       </c>
-      <c r="AC10" s="29">
+      <c r="AC10" s="20">
         <v>75555</v>
       </c>
-      <c r="AD10" s="29">
+      <c r="AD10" s="20">
         <v>208635</v>
       </c>
-      <c r="AE10" s="29">
+      <c r="AE10" s="20">
         <v>310347</v>
       </c>
-      <c r="AF10" s="29">
+      <c r="AF10" s="20">
         <v>36.9</v>
       </c>
-      <c r="AG10" s="29">
+      <c r="AG10" s="20">
         <v>81.3</v>
       </c>
-      <c r="AH10" s="29">
+      <c r="AH10" s="20">
         <v>86.4</v>
       </c>
-      <c r="AI10" s="29">
+      <c r="AI10" s="20">
         <v>96.7</v>
       </c>
-      <c r="AJ10" s="29">
+      <c r="AJ10" s="20">
         <v>77.2</v>
       </c>
-      <c r="AK10" s="29">
+      <c r="AK10" s="20">
         <v>99.6</v>
       </c>
-      <c r="AL10" s="29">
+      <c r="AL10" s="20">
         <v>68.7</v>
       </c>
-      <c r="AM10" s="29">
+      <c r="AM10" s="20">
         <v>94.1</v>
       </c>
-      <c r="AN10" s="29">
+      <c r="AN10" s="20">
         <v>95.6</v>
       </c>
-      <c r="AO10" s="29">
+      <c r="AO10" s="20">
         <v>36.700000000000003</v>
       </c>
-      <c r="AP10" s="29">
+      <c r="AP10" s="20">
         <v>14.9</v>
       </c>
-      <c r="AQ10" s="29">
+      <c r="AQ10" s="20">
         <v>14.8</v>
       </c>
-      <c r="AR10" s="29">
+      <c r="AR10" s="20">
         <v>12.7</v>
       </c>
-      <c r="AS10" s="29">
+      <c r="AS10" s="20">
         <v>22.5</v>
       </c>
-      <c r="AT10" s="29">
+      <c r="AT10" s="20">
         <v>15.6</v>
       </c>
-      <c r="AU10" s="29">
+      <c r="AU10" s="20">
         <v>99.3</v>
       </c>
-      <c r="AV10" s="29">
+      <c r="AV10" s="20">
         <v>98.1</v>
       </c>
-      <c r="AW10" s="29">
+      <c r="AW10" s="20">
         <v>85.7</v>
       </c>
-      <c r="AX10" s="29">
+      <c r="AX10" s="20">
         <v>66.400000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="20">
         <v>23206</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="20">
         <v>10611</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="20">
         <v>26176</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="20">
         <v>23.7</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="20">
         <v>83</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="20">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="20">
         <v>7.15</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="20">
         <v>1.4</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="20">
         <v>22121.05</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="20">
         <v>19235.72</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="20">
         <v>24537.07</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="20">
         <v>14.11</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="20">
         <v>31.09</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="20">
         <v>30.5</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="20">
         <v>84</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="20">
         <v>0.66</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="20">
         <v>11933.01</v>
       </c>
-      <c r="S11" s="29">
+      <c r="S11" s="20">
         <v>29444.27</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="20">
         <v>5.7</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="20">
         <v>0.2</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="20">
         <v>37.31</v>
       </c>
-      <c r="W11" s="29">
+      <c r="W11" s="20">
         <v>7.5</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="20">
         <v>5.7</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Y11" s="20">
         <v>7.1</v>
       </c>
-      <c r="Z11" s="29">
+      <c r="Z11" s="20">
         <v>76.599999999999994</v>
       </c>
-      <c r="AA11" s="29">
+      <c r="AA11" s="20">
         <v>370645</v>
       </c>
-      <c r="AB11" s="29">
+      <c r="AB11" s="20">
         <v>24680</v>
       </c>
-      <c r="AC11" s="29">
+      <c r="AC11" s="20">
         <v>45521</v>
       </c>
-      <c r="AD11" s="29">
+      <c r="AD11" s="20">
         <v>134088</v>
       </c>
-      <c r="AE11" s="29">
+      <c r="AE11" s="20">
         <v>166356</v>
       </c>
-      <c r="AF11" s="29">
+      <c r="AF11" s="20">
         <v>33.1</v>
       </c>
-      <c r="AG11" s="29">
+      <c r="AG11" s="20">
         <v>77.400000000000006</v>
       </c>
-      <c r="AH11" s="29">
+      <c r="AH11" s="20">
         <v>81.099999999999994</v>
       </c>
-      <c r="AI11" s="29">
+      <c r="AI11" s="20">
         <v>95.8</v>
       </c>
-      <c r="AJ11" s="29">
+      <c r="AJ11" s="20">
         <v>59.5</v>
       </c>
-      <c r="AK11" s="29">
+      <c r="AK11" s="20">
         <v>99.9</v>
       </c>
-      <c r="AL11" s="29">
+      <c r="AL11" s="20">
         <v>73.400000000000006</v>
       </c>
-      <c r="AM11" s="29">
+      <c r="AM11" s="20">
         <v>90.1</v>
       </c>
-      <c r="AN11" s="29">
+      <c r="AN11" s="20">
         <v>96</v>
       </c>
-      <c r="AO11" s="29">
+      <c r="AO11" s="20">
         <v>36.200000000000003</v>
       </c>
-      <c r="AP11" s="29">
+      <c r="AP11" s="20">
         <v>18.8</v>
       </c>
-      <c r="AQ11" s="29">
+      <c r="AQ11" s="20">
         <v>16.899999999999999</v>
       </c>
-      <c r="AR11" s="29">
+      <c r="AR11" s="20">
         <v>12</v>
       </c>
-      <c r="AS11" s="29">
+      <c r="AS11" s="20">
         <v>24.8</v>
       </c>
-      <c r="AT11" s="29">
+      <c r="AT11" s="20">
         <v>10.3</v>
       </c>
-      <c r="AU11" s="29">
+      <c r="AU11" s="20">
         <v>100</v>
       </c>
-      <c r="AV11" s="29">
+      <c r="AV11" s="20">
         <v>99.3</v>
       </c>
-      <c r="AW11" s="29">
+      <c r="AW11" s="20">
         <v>77.400000000000006</v>
       </c>
-      <c r="AX11" s="29">
+      <c r="AX11" s="20">
         <v>65.2</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="20">
         <v>19454</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="20">
         <v>8796</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="20">
         <v>21611</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="20">
         <v>31.5</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="20">
         <v>82.79</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="20">
         <v>2.5</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="20">
         <v>3.74</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="20">
         <v>3.3</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="20">
         <v>19947.8</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="20">
         <v>17972.63</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="20">
         <v>21794.57</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="20">
         <v>21.53</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="20">
         <v>44.63</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="20">
         <v>37.6</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="20">
         <v>84.1</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="20">
         <v>0.26</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="20">
         <v>9484</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="20">
         <v>23181.919999999998</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="20">
         <v>6.1</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="20">
         <v>0.16</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="20">
         <v>29.47</v>
       </c>
-      <c r="W12" s="29">
+      <c r="W12" s="20">
         <v>7.4</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="20">
         <v>5.4</v>
       </c>
-      <c r="Y12" s="29">
+      <c r="Y12" s="20">
         <v>6.9</v>
       </c>
-      <c r="Z12" s="29">
+      <c r="Z12" s="20">
         <v>90</v>
       </c>
-      <c r="AA12" s="29">
+      <c r="AA12" s="20">
         <v>67336</v>
       </c>
-      <c r="AB12" s="29">
+      <c r="AB12" s="20">
         <v>4787</v>
       </c>
-      <c r="AC12" s="29">
+      <c r="AC12" s="20">
         <v>8384</v>
       </c>
-      <c r="AD12" s="29">
+      <c r="AD12" s="20">
         <v>29035</v>
       </c>
-      <c r="AE12" s="29">
+      <c r="AE12" s="20">
         <v>25130</v>
       </c>
-      <c r="AF12" s="29">
+      <c r="AF12" s="20">
         <v>37.1</v>
       </c>
-      <c r="AG12" s="29">
+      <c r="AG12" s="20">
         <v>74.900000000000006</v>
       </c>
-      <c r="AH12" s="29">
+      <c r="AH12" s="20">
         <v>76.400000000000006</v>
       </c>
-      <c r="AI12" s="29">
+      <c r="AI12" s="20">
         <v>94.2</v>
       </c>
-      <c r="AJ12" s="29">
+      <c r="AJ12" s="20">
         <v>60.4</v>
       </c>
-      <c r="AK12" s="29">
+      <c r="AK12" s="20">
         <v>99.3</v>
       </c>
-      <c r="AL12" s="29">
+      <c r="AL12" s="20">
         <v>78.900000000000006</v>
       </c>
-      <c r="AM12" s="29">
+      <c r="AM12" s="20">
         <v>89</v>
       </c>
-      <c r="AN12" s="29">
+      <c r="AN12" s="20">
         <v>93.5</v>
       </c>
-      <c r="AO12" s="29">
+      <c r="AO12" s="20">
         <v>38.1</v>
       </c>
-      <c r="AP12" s="29">
+      <c r="AP12" s="20">
         <v>19.3</v>
       </c>
-      <c r="AQ12" s="29">
+      <c r="AQ12" s="20">
         <v>11.9</v>
       </c>
-      <c r="AR12" s="29">
+      <c r="AR12" s="20">
         <v>10.4</v>
       </c>
-      <c r="AS12" s="29">
+      <c r="AS12" s="20">
         <v>23.9</v>
       </c>
-      <c r="AT12" s="29">
+      <c r="AT12" s="20">
         <v>11.6</v>
       </c>
-      <c r="AU12" s="29">
+      <c r="AU12" s="20">
         <v>99.6</v>
       </c>
-      <c r="AV12" s="29">
+      <c r="AV12" s="20">
         <v>99</v>
       </c>
-      <c r="AW12" s="29">
+      <c r="AW12" s="20">
         <v>68.8</v>
       </c>
-      <c r="AX12" s="29">
+      <c r="AX12" s="20">
         <v>59.5</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="20">
         <v>23873</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="20">
         <v>11218</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="20">
         <v>27541</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="20">
         <v>20</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="20">
         <v>83.51</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="20">
         <v>1.99</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="20">
         <v>9.19</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="20">
         <v>22244.59</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="20">
         <v>19543.169999999998</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="20">
         <v>24826.91</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="20">
         <v>11.76</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="20">
         <v>27.84</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="20">
         <v>31.2</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="20">
         <v>85.8</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="20">
         <v>0.66</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="20">
         <v>10986.62</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="20">
         <v>26846.48</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="20">
         <v>2.7</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="20">
         <v>24.27</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="20">
         <v>6.8</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="20">
         <v>5.2</v>
       </c>
-      <c r="Y13" s="29">
+      <c r="Y13" s="20">
         <v>6.4</v>
       </c>
-      <c r="Z13" s="29">
+      <c r="Z13" s="20">
         <v>83.6</v>
       </c>
-      <c r="AA13" s="29">
+      <c r="AA13" s="20">
         <v>197813</v>
       </c>
-      <c r="AB13" s="29">
+      <c r="AB13" s="20">
         <v>12100</v>
       </c>
-      <c r="AC13" s="29">
+      <c r="AC13" s="20">
         <v>28030</v>
       </c>
-      <c r="AD13" s="29">
+      <c r="AD13" s="20">
         <v>75638</v>
       </c>
-      <c r="AE13" s="29">
+      <c r="AE13" s="20">
         <v>82045</v>
       </c>
-      <c r="AF13" s="29">
+      <c r="AF13" s="20">
         <v>29.7</v>
       </c>
-      <c r="AG13" s="29">
+      <c r="AG13" s="20">
         <v>77.099999999999994</v>
       </c>
-      <c r="AH13" s="29">
+      <c r="AH13" s="20">
         <v>72.099999999999994</v>
       </c>
-      <c r="AI13" s="29">
+      <c r="AI13" s="20">
         <v>92.4</v>
       </c>
-      <c r="AJ13" s="29">
+      <c r="AJ13" s="20">
         <v>71.2</v>
       </c>
-      <c r="AK13" s="29">
+      <c r="AK13" s="20">
         <v>99.4</v>
       </c>
-      <c r="AL13" s="29">
+      <c r="AL13" s="20">
         <v>64.7</v>
       </c>
-      <c r="AM13" s="29">
+      <c r="AM13" s="20">
         <v>94.2</v>
       </c>
-      <c r="AN13" s="29">
+      <c r="AN13" s="20">
         <v>95.7</v>
       </c>
-      <c r="AO13" s="29">
+      <c r="AO13" s="20">
         <v>41.4</v>
       </c>
-      <c r="AP13" s="29">
+      <c r="AP13" s="20">
         <v>18.399999999999999</v>
       </c>
-      <c r="AQ13" s="29">
+      <c r="AQ13" s="20">
         <v>17.100000000000001</v>
       </c>
-      <c r="AR13" s="29">
+      <c r="AR13" s="20">
         <v>6.2</v>
       </c>
-      <c r="AS13" s="29">
+      <c r="AS13" s="20">
         <v>17.8</v>
       </c>
-      <c r="AT13" s="29">
+      <c r="AT13" s="20">
         <v>17.3</v>
       </c>
-      <c r="AU13" s="29">
+      <c r="AU13" s="20">
         <v>98.4</v>
       </c>
-      <c r="AV13" s="29">
+      <c r="AV13" s="20">
         <v>98</v>
       </c>
-      <c r="AW13" s="29">
+      <c r="AW13" s="20">
         <v>80.900000000000006</v>
       </c>
-      <c r="AX13" s="29">
+      <c r="AX13" s="20">
         <v>60.9</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="20">
         <v>35913</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="20">
         <v>14199</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="20">
         <v>35587</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="20">
         <v>15</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="20">
         <v>84.99</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="20">
         <v>2.31</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="20">
         <v>6.3</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="20">
         <v>0.6</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="20">
         <v>27010.93</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="20">
         <v>23925.99</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="20">
         <v>29816.34</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="20">
         <v>10.62</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="20">
         <v>29.03</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="20">
         <v>29.6</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="20">
         <v>86.8</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="20">
         <v>1.42</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="20">
         <v>14283.93</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="20">
         <v>35798.089999999997</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="20">
         <v>7.1</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="20">
         <v>0.09</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="20">
         <v>34.479999999999997</v>
       </c>
-      <c r="W14" s="29">
+      <c r="W14" s="20">
         <v>7.2</v>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="20">
         <v>5.9</v>
       </c>
-      <c r="Y14" s="29">
+      <c r="Y14" s="20">
         <v>6.6</v>
       </c>
-      <c r="Z14" s="29">
+      <c r="Z14" s="20">
         <v>62.3</v>
       </c>
-      <c r="AA14" s="29">
+      <c r="AA14" s="20">
         <v>552027</v>
       </c>
-      <c r="AB14" s="29">
+      <c r="AB14" s="20">
         <v>20965</v>
       </c>
-      <c r="AC14" s="29">
+      <c r="AC14" s="20">
         <v>60387</v>
       </c>
-      <c r="AD14" s="29">
+      <c r="AD14" s="20">
         <v>158817</v>
       </c>
-      <c r="AE14" s="29">
+      <c r="AE14" s="20">
         <v>311858</v>
       </c>
-      <c r="AF14" s="29">
+      <c r="AF14" s="20">
         <v>33.5</v>
       </c>
-      <c r="AG14" s="29">
+      <c r="AG14" s="20">
         <v>80.3</v>
       </c>
-      <c r="AH14" s="29">
+      <c r="AH14" s="20">
         <v>86.7</v>
       </c>
-      <c r="AI14" s="29">
+      <c r="AI14" s="20">
         <v>97.1</v>
       </c>
-      <c r="AJ14" s="29">
+      <c r="AJ14" s="20">
         <v>82.3</v>
       </c>
-      <c r="AK14" s="29">
+      <c r="AK14" s="20">
         <v>99.6</v>
       </c>
-      <c r="AL14" s="29">
+      <c r="AL14" s="20">
         <v>67.2</v>
       </c>
-      <c r="AM14" s="29">
+      <c r="AM14" s="20">
         <v>92.1</v>
       </c>
-      <c r="AN14" s="29">
+      <c r="AN14" s="20">
         <v>94.7</v>
       </c>
-      <c r="AO14" s="29">
+      <c r="AO14" s="20">
         <v>35.200000000000003</v>
       </c>
-      <c r="AP14" s="29">
+      <c r="AP14" s="20">
         <v>15.9</v>
       </c>
-      <c r="AQ14" s="29">
+      <c r="AQ14" s="20">
         <v>17.7</v>
       </c>
-      <c r="AR14" s="29">
+      <c r="AR14" s="20">
         <v>7.5</v>
       </c>
-      <c r="AS14" s="29">
+      <c r="AS14" s="20">
         <v>19</v>
       </c>
-      <c r="AT14" s="29">
+      <c r="AT14" s="20">
         <v>13.2</v>
       </c>
-      <c r="AU14" s="29">
+      <c r="AU14" s="20">
         <v>98.7</v>
       </c>
-      <c r="AV14" s="29">
+      <c r="AV14" s="20">
         <v>97.8</v>
       </c>
-      <c r="AW14" s="29">
+      <c r="AW14" s="20">
         <v>79.099999999999994</v>
       </c>
-      <c r="AX14" s="29">
+      <c r="AX14" s="20">
         <v>67.8</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="20">
         <v>21642</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="20">
         <v>8956</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="20">
         <v>24448</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="20">
         <v>27.7</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="20">
         <v>82.63</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="20">
         <v>4.3099999999999996</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="20">
         <v>6.9</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="20">
         <v>3.3</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="20">
         <v>21510.59</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="20">
         <v>18598.64</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="20">
         <v>23670.240000000002</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="20">
         <v>14.68</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="20">
         <v>33.4</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="20">
         <v>27.3</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="20">
         <v>85.3</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="20">
         <v>1.82</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="20">
         <v>10933.39</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="20">
         <v>29746.05</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="20">
         <v>9</v>
       </c>
-      <c r="U15" s="29">
+      <c r="U15" s="20">
         <v>0.16</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="20">
         <v>44.99</v>
       </c>
-      <c r="W15" s="29">
+      <c r="W15" s="20">
         <v>7.1</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="20">
         <v>5.3</v>
       </c>
-      <c r="Y15" s="29">
+      <c r="Y15" s="20">
         <v>7.1</v>
       </c>
-      <c r="Z15" s="29">
+      <c r="Z15" s="20">
         <v>63.5</v>
       </c>
-      <c r="AA15" s="29">
+      <c r="AA15" s="20">
         <v>96764</v>
       </c>
-      <c r="AB15" s="29">
+      <c r="AB15" s="20">
         <v>7107</v>
       </c>
-      <c r="AC15" s="29">
+      <c r="AC15" s="20">
         <v>12537</v>
       </c>
-      <c r="AD15" s="29">
+      <c r="AD15" s="20">
         <v>37027</v>
       </c>
-      <c r="AE15" s="29">
+      <c r="AE15" s="20">
         <v>40093</v>
       </c>
-      <c r="AF15" s="29">
+      <c r="AF15" s="20">
         <v>37.5</v>
       </c>
-      <c r="AG15" s="29">
+      <c r="AG15" s="20">
         <v>75.8</v>
       </c>
-      <c r="AH15" s="29">
+      <c r="AH15" s="20">
         <v>79.5</v>
       </c>
-      <c r="AI15" s="29">
+      <c r="AI15" s="20">
         <v>94.4</v>
       </c>
-      <c r="AJ15" s="29">
+      <c r="AJ15" s="20">
         <v>53</v>
       </c>
-      <c r="AK15" s="29">
+      <c r="AK15" s="20">
         <v>98.3</v>
       </c>
-      <c r="AL15" s="29">
+      <c r="AL15" s="20">
         <v>77.8</v>
       </c>
-      <c r="AM15" s="29">
+      <c r="AM15" s="20">
         <v>88.8</v>
       </c>
-      <c r="AN15" s="29">
+      <c r="AN15" s="20">
         <v>95.5</v>
       </c>
-      <c r="AO15" s="29">
+      <c r="AO15" s="20">
         <v>45</v>
       </c>
-      <c r="AP15" s="29">
+      <c r="AP15" s="20">
         <v>16.100000000000001</v>
       </c>
-      <c r="AQ15" s="29">
+      <c r="AQ15" s="20">
         <v>25.8</v>
       </c>
-      <c r="AR15" s="29">
+      <c r="AR15" s="20">
         <v>14.2</v>
       </c>
-      <c r="AS15" s="29">
+      <c r="AS15" s="20">
         <v>23.3</v>
       </c>
-      <c r="AT15" s="29">
+      <c r="AT15" s="20">
         <v>11.5</v>
       </c>
-      <c r="AU15" s="29">
+      <c r="AU15" s="20">
         <v>98.9</v>
       </c>
-      <c r="AV15" s="29">
+      <c r="AV15" s="20">
         <v>98.9</v>
       </c>
-      <c r="AW15" s="29">
+      <c r="AW15" s="20">
         <v>70</v>
       </c>
-      <c r="AX15" s="29">
+      <c r="AX15" s="20">
         <v>56.3</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="20">
         <v>32141</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="20">
         <v>13937</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="20">
         <v>34612</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="20">
         <v>7.7</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="20">
         <v>84.57</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="20">
         <v>2.16</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="20">
         <v>8.15</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="20">
         <v>0.6</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="20">
         <v>26364.75</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="20">
         <v>22697.59</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="20">
         <v>29546.12</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="20">
         <v>8.24</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="20">
         <v>22.88</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="20">
         <v>23.8</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="20">
         <v>83.3</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="20">
         <v>0.82</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="20">
         <v>13639.58</v>
       </c>
-      <c r="S16" s="29">
+      <c r="S16" s="20">
         <v>33909.75</v>
       </c>
-      <c r="T16" s="29">
+      <c r="T16" s="20">
         <v>2.1</v>
       </c>
-      <c r="U16" s="29">
+      <c r="U16" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="20">
         <v>22.03</v>
       </c>
-      <c r="W16" s="29">
+      <c r="W16" s="20">
         <v>7.6</v>
       </c>
-      <c r="X16" s="29">
+      <c r="X16" s="20">
         <v>6.6</v>
       </c>
-      <c r="Y16" s="29">
+      <c r="Y16" s="20">
         <v>7.1</v>
       </c>
-      <c r="Z16" s="29">
+      <c r="Z16" s="20">
         <v>67.8</v>
       </c>
-      <c r="AA16" s="29">
+      <c r="AA16" s="20">
         <v>44430</v>
       </c>
-      <c r="AB16" s="29">
+      <c r="AB16" s="20">
         <v>3833</v>
       </c>
-      <c r="AC16" s="29">
+      <c r="AC16" s="20">
         <v>6282</v>
       </c>
-      <c r="AD16" s="29">
+      <c r="AD16" s="20">
         <v>16003</v>
       </c>
-      <c r="AE16" s="29">
+      <c r="AE16" s="20">
         <v>18312</v>
       </c>
-      <c r="AF16" s="29">
+      <c r="AF16" s="20">
         <v>37.4</v>
       </c>
-      <c r="AG16" s="29">
+      <c r="AG16" s="20">
         <v>77.400000000000006</v>
       </c>
-      <c r="AH16" s="29">
+      <c r="AH16" s="20">
         <v>86.3</v>
       </c>
-      <c r="AI16" s="29">
+      <c r="AI16" s="20">
         <v>96.5</v>
       </c>
-      <c r="AJ16" s="29">
+      <c r="AJ16" s="20">
         <v>75</v>
       </c>
-      <c r="AK16" s="29">
+      <c r="AK16" s="20">
         <v>99.3</v>
       </c>
-      <c r="AL16" s="29">
+      <c r="AL16" s="20">
         <v>68.900000000000006</v>
       </c>
-      <c r="AM16" s="29">
+      <c r="AM16" s="20">
         <v>95.2</v>
       </c>
-      <c r="AN16" s="29">
+      <c r="AN16" s="20">
         <v>92.5</v>
       </c>
-      <c r="AO16" s="29">
+      <c r="AO16" s="20">
         <v>35.6</v>
       </c>
-      <c r="AP16" s="29">
+      <c r="AP16" s="20">
         <v>15.4</v>
       </c>
-      <c r="AQ16" s="29">
+      <c r="AQ16" s="20">
         <v>13.5</v>
       </c>
-      <c r="AR16" s="29">
+      <c r="AR16" s="20">
         <v>1.4</v>
       </c>
-      <c r="AS16" s="29">
+      <c r="AS16" s="20">
         <v>20.399999999999999</v>
       </c>
-      <c r="AT16" s="29">
+      <c r="AT16" s="20">
         <v>18.2</v>
       </c>
-      <c r="AU16" s="29">
+      <c r="AU16" s="20">
         <v>99.3</v>
       </c>
-      <c r="AV16" s="29">
+      <c r="AV16" s="20">
         <v>98.3</v>
       </c>
-      <c r="AW16" s="29">
+      <c r="AW16" s="20">
         <v>82.2</v>
       </c>
-      <c r="AX16" s="29">
+      <c r="AX16" s="20">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="20">
         <v>34142</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="20">
         <v>15300</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="20">
         <v>36399</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="20">
         <v>10</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="20">
         <v>83.97</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="20">
         <v>2.94</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="20">
         <v>6.45</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="20">
         <v>0.5</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="20">
         <v>28470.94</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="20">
         <v>24757.18</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="20">
         <v>31970.3</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="20">
         <v>9.15</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="20">
         <v>27.4</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="20">
         <v>35.9</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="20">
         <v>83.3</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="20">
         <v>1.19</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="20">
         <v>14524.34</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="20">
         <v>34423.19</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="20">
         <v>5.7</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="20">
         <v>0.13</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="20">
         <v>30.47</v>
       </c>
-      <c r="W17" s="29">
+      <c r="W17" s="20">
         <v>7.5</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="20">
         <v>6.2</v>
       </c>
-      <c r="Y17" s="29">
+      <c r="Y17" s="20">
         <v>7</v>
       </c>
-      <c r="Z17" s="29">
+      <c r="Z17" s="20">
         <v>65.400000000000006</v>
       </c>
-      <c r="AA17" s="29">
+      <c r="AA17" s="20">
         <v>143028</v>
       </c>
-      <c r="AB17" s="29">
+      <c r="AB17" s="20">
         <v>10700</v>
       </c>
-      <c r="AC17" s="29">
+      <c r="AC17" s="20">
         <v>19745</v>
       </c>
-      <c r="AD17" s="29">
+      <c r="AD17" s="20">
         <v>53524</v>
       </c>
-      <c r="AE17" s="29">
+      <c r="AE17" s="20">
         <v>59059</v>
       </c>
-      <c r="AF17" s="29">
+      <c r="AF17" s="20">
         <v>36</v>
       </c>
-      <c r="AG17" s="29">
+      <c r="AG17" s="20">
         <v>78.099999999999994</v>
       </c>
-      <c r="AH17" s="29">
+      <c r="AH17" s="20">
         <v>84.6</v>
       </c>
-      <c r="AI17" s="29">
+      <c r="AI17" s="20">
         <v>95.5</v>
       </c>
-      <c r="AJ17" s="29">
+      <c r="AJ17" s="20">
         <v>79.8</v>
       </c>
-      <c r="AK17" s="29">
+      <c r="AK17" s="20">
         <v>99.7</v>
       </c>
-      <c r="AL17" s="29">
+      <c r="AL17" s="20">
         <v>75.5</v>
       </c>
-      <c r="AM17" s="29">
+      <c r="AM17" s="20">
         <v>99.3</v>
       </c>
-      <c r="AN17" s="29">
+      <c r="AN17" s="20">
         <v>95.9</v>
       </c>
-      <c r="AO17" s="29">
+      <c r="AO17" s="20">
         <v>35.9</v>
       </c>
-      <c r="AP17" s="29">
+      <c r="AP17" s="20">
         <v>13.8</v>
       </c>
-      <c r="AQ17" s="29">
+      <c r="AQ17" s="20">
         <v>13.6</v>
       </c>
-      <c r="AR17" s="29">
+      <c r="AR17" s="20">
         <v>11.1</v>
       </c>
-      <c r="AS17" s="29">
+      <c r="AS17" s="20">
         <v>19.8</v>
       </c>
-      <c r="AT17" s="29">
+      <c r="AT17" s="20">
         <v>17.899999999999999</v>
       </c>
-      <c r="AU17" s="29">
+      <c r="AU17" s="20">
         <v>98.3</v>
       </c>
-      <c r="AV17" s="29">
+      <c r="AV17" s="20">
         <v>96.7</v>
       </c>
-      <c r="AW17" s="29">
+      <c r="AW17" s="20">
         <v>81</v>
       </c>
-      <c r="AX17" s="29">
+      <c r="AX17" s="20">
         <v>58.3</v>
       </c>
     </row>
     <row r="18" spans="1:50" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="20">
         <v>28200</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="20">
         <v>12697</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="20">
         <v>30162</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="20">
         <v>12.3</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="20">
         <v>83.81</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="20">
         <v>3.22</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="20">
         <v>6.38</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="20">
         <v>0.5</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="20">
         <v>22641.17</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="20">
         <v>19770.93</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="20">
         <v>25593.27</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="20">
         <v>9.9600000000000009</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="20">
         <v>24.97</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O18" s="20">
         <v>26.3</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P18" s="20">
         <v>84.3</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="20">
         <v>0.31</v>
       </c>
-      <c r="R18" s="29">
+      <c r="R18" s="20">
         <v>12269.2</v>
       </c>
-      <c r="S18" s="29">
+      <c r="S18" s="20">
         <v>29149.25</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T18" s="20">
         <v>2.8</v>
       </c>
-      <c r="U18" s="29">
+      <c r="U18" s="20">
         <v>0.16</v>
       </c>
-      <c r="V18" s="29">
+      <c r="V18" s="20">
         <v>24.56</v>
       </c>
-      <c r="W18" s="29">
+      <c r="W18" s="20">
         <v>7.2</v>
       </c>
-      <c r="X18" s="29">
+      <c r="X18" s="20">
         <v>6</v>
       </c>
-      <c r="Y18" s="29">
+      <c r="Y18" s="20">
         <v>7</v>
       </c>
-      <c r="Z18" s="29">
+      <c r="Z18" s="20">
         <v>72.5</v>
       </c>
-      <c r="AA18" s="29">
+      <c r="AA18" s="20">
         <v>22700</v>
       </c>
-      <c r="AB18" s="29">
+      <c r="AB18" s="20">
         <v>2233</v>
       </c>
-      <c r="AC18" s="29">
+      <c r="AC18" s="20">
         <v>2775</v>
       </c>
-      <c r="AD18" s="29">
+      <c r="AD18" s="20">
         <v>7833</v>
       </c>
-      <c r="AE18" s="29">
+      <c r="AE18" s="20">
         <v>9859</v>
       </c>
-      <c r="AF18" s="29">
+      <c r="AF18" s="20">
         <v>31.3</v>
       </c>
-      <c r="AG18" s="29">
+      <c r="AG18" s="20">
         <v>80.099999999999994</v>
       </c>
-      <c r="AH18" s="29">
+      <c r="AH18" s="20">
         <v>77.7</v>
       </c>
-      <c r="AI18" s="29">
+      <c r="AI18" s="20">
         <v>93.6</v>
       </c>
-      <c r="AJ18" s="29">
+      <c r="AJ18" s="20">
         <v>70.8</v>
       </c>
-      <c r="AK18" s="29">
+      <c r="AK18" s="20">
         <v>99.4</v>
       </c>
-      <c r="AL18" s="29">
+      <c r="AL18" s="20">
         <v>76.099999999999994</v>
       </c>
-      <c r="AM18" s="29">
+      <c r="AM18" s="20">
         <v>93.4</v>
       </c>
-      <c r="AN18" s="29">
+      <c r="AN18" s="20">
         <v>97.6</v>
       </c>
-      <c r="AO18" s="29">
+      <c r="AO18" s="20">
         <v>37.5</v>
       </c>
-      <c r="AP18" s="29">
+      <c r="AP18" s="20">
         <v>15</v>
       </c>
-      <c r="AQ18" s="29">
+      <c r="AQ18" s="20">
         <v>19.399999999999999</v>
       </c>
-      <c r="AR18" s="29">
+      <c r="AR18" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AS18" s="29">
+      <c r="AS18" s="20">
         <v>20.100000000000001</v>
       </c>
-      <c r="AT18" s="29">
+      <c r="AT18" s="20">
         <v>14.1</v>
       </c>
-      <c r="AU18" s="29">
+      <c r="AU18" s="20">
         <v>99.7</v>
       </c>
-      <c r="AV18" s="29">
+      <c r="AV18" s="20">
         <v>99.3</v>
       </c>
-      <c r="AW18" s="29">
+      <c r="AW18" s="20">
         <v>74.599999999999994</v>
       </c>
-      <c r="AX18" s="29">
+      <c r="AX18" s="20">
         <v>63.1</v>
       </c>
     </row>
@@ -4357,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8299C2B-CE50-424F-AE07-5716E5166FB9}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A24" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4393,10 +4389,10 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4404,1099 +4400,1099 @@
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="41"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="27">
         <v>2019</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="36" t="s">
         <v>179</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="42"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="27">
         <v>2018</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="36" t="s">
         <v>180</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="42"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="27">
         <v>2018</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="36" t="s">
         <v>180</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="42"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="27">
         <v>2018</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="36" t="s">
         <v>181</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="42"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="27">
         <v>2019</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="36" t="s">
         <v>181</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="42"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="27">
         <v>2019</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="36" t="s">
         <v>181</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="43"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="27">
         <v>2017</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="36" t="s">
         <v>182</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="43"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="27">
         <v>2019</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="42" t="s">
         <v>183</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="43"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="27">
         <v>2018</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="42" t="s">
         <v>184</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="43"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="27">
         <v>2018</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="42" t="s">
         <v>184</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="43"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="27">
         <v>2018</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="42" t="s">
         <v>184</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="43"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="27">
         <v>2019</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="42" t="s">
         <v>183</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="43"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="27">
         <v>2019</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="42" t="s">
         <v>183</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="43"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="27">
         <v>2019</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="42" t="s">
         <v>183</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="43"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="27">
         <v>2019</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="42" t="s">
         <v>183</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="43"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="27">
         <v>2019</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" t="s">
         <v>185</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="43"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="27">
         <v>2019</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="42" t="s">
         <v>186</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="43"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="27">
         <v>2019</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="42" t="s">
         <v>186</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="43"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="27">
         <v>2019</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="42" t="s">
         <v>180</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="43"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="27">
         <v>2019</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="42" t="s">
         <v>187</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="43"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="27">
         <v>2017</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="42" t="s">
         <v>188</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="43"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="27">
         <v>2019</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="42" t="s">
         <v>180</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="43"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="27">
         <v>2019</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="42" t="s">
         <v>180</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="43"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="27">
         <v>2019</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="42" t="s">
         <v>180</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="43"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="27">
         <v>2019</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="42" t="s">
         <v>180</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="43"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="27">
         <v>2020</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="36" t="s">
         <v>189</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="43"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="27">
         <v>2020</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="36" t="s">
         <v>189</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="43"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="27">
         <v>2020</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="36" t="s">
         <v>189</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="43"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="27">
         <v>2020</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="36" t="s">
         <v>189</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="43"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="27">
         <v>2020</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="36" t="s">
         <v>189</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="43"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="27">
         <v>2019</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="36" t="s">
         <v>190</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="43"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="27">
         <v>2019</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="36" t="s">
         <v>190</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="43"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="27">
         <v>2020</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="36" t="s">
         <v>191</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="43"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="27">
         <v>2020</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="36" t="s">
         <v>191</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="43"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="27">
         <v>2020</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="36" t="s">
         <v>191</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="43"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="27">
         <v>2020</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="36" t="s">
         <v>191</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="43"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="27">
         <v>2020</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="36" t="s">
         <v>191</v>
       </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="43"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="27">
         <v>2020</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="36" t="s">
         <v>191</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="H40" s="43"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="27">
         <v>2020</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="36" t="s">
         <v>191</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="43"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="27">
         <v>2017</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="36" t="s">
         <v>182</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="H42" s="43"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="27">
         <v>2017</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="36" t="s">
         <v>182</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="H43" s="43"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="27">
         <v>2017</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="36" t="s">
         <v>182</v>
       </c>
       <c r="G44" s="5"/>
-      <c r="H44" s="43"/>
+      <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="27">
         <v>2017</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="36" t="s">
         <v>182</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="H45" s="43"/>
+      <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="27">
         <v>2017</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="36" t="s">
         <v>182</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="H46" s="43"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="27">
         <v>2017</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="36" t="s">
         <v>182</v>
       </c>
       <c r="G47" s="5"/>
-      <c r="H47" s="43"/>
+      <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="36" t="s">
         <v>192</v>
       </c>
       <c r="G48" s="5"/>
-      <c r="H48" s="43"/>
+      <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="47" t="s">
+      <c r="E49" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="36" t="s">
         <v>192</v>
       </c>
       <c r="G49" s="5"/>
-      <c r="H49" s="43"/>
+      <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="36" t="s">
         <v>192</v>
       </c>
       <c r="G50" s="5"/>
-      <c r="H50" s="43"/>
+      <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="39" t="s">
         <v>192</v>
       </c>
       <c r="G51" s="7"/>
-      <c r="H51" s="44"/>
+      <c r="H51" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Datasets/desigualdad_ccaa.xlsx
+++ b/Datasets/desigualdad_ccaa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4299C3-F9A6-854C-BB4C-482FF0B413B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1935A516-129E-DC40-9058-D392D916FD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="1520" windowWidth="26780" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="196">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -645,12 +645,132 @@
   <si>
     <t>desigualdad_ccaa</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Técnica de estudio :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Análisis empleando el procedimiento Cluster Jerárquico/K-means  de las **CCAA** en
+función a las variables **Salmedmuj** y **Salmedhom** para agrupar las comunidades por las diferencias de salarios entre sexos..:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Hacer un análisis exploratorio.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Ver si hay NA’s y si es necesario escalar los datos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.Plantear variables sobre las que se van a hacer los cluster.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4.Interpretar resultados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.Ver métodos Elbrow y Silhouette si hay otro número óptimo de clusters y en ese caso repetir el estudio.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -723,6 +843,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1496,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6B0CF3-90C1-0344-942C-7B02CA0F4466}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1587,9 +1712,93 @@
       <c r="F12" s="50"/>
       <c r="G12" s="51"/>
     </row>
+    <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+    </row>
+    <row r="23" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:G12"/>
+    <mergeCell ref="B14:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
